--- a/Pimonov_Kursovaya_rabota439_2.xlsx
+++ b/Pimonov_Kursovaya_rabota439_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\disk_d\programming\kursach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AAEADB-2320-4BDC-BC82-12F9B7ACCB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2ED310-82E3-4CED-8996-F946A43DE13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Pimonov_Kursovaya_rabota439_2.xlsx
+++ b/Pimonov_Kursovaya_rabota439_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\disk_d\programming\kursach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2ED310-82E3-4CED-8996-F946A43DE13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94DA487-5931-4DFC-89B3-149B423BE13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +144,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,12 +168,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -213,7 +214,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -575,7 +577,7 @@
       <c r="R3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="14">
         <f>1*$M$3</f>
         <v>0.66666666666666663</v>
       </c>
@@ -618,7 +620,7 @@
       <c r="R4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="14">
         <f>1*$M$4</f>
         <v>0.33333333333333331</v>
       </c>
@@ -744,7 +746,7 @@
       <c r="R10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="14">
         <f>M10*S3</f>
         <v>0.53333333333333333</v>
       </c>
@@ -785,7 +787,7 @@
       <c r="R11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="14">
         <f>M11*S3</f>
         <v>0.13333333333333333</v>
       </c>
@@ -804,7 +806,7 @@
       <c r="R12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="14">
         <f>M18*S4</f>
         <v>0.25</v>
       </c>
@@ -821,7 +823,7 @@
       <c r="R13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="14">
         <f>M19*S4</f>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1105,7 +1107,7 @@
       <c r="R25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="14">
         <f>M25*S10</f>
         <v>0.42666666666666669</v>
       </c>
@@ -1147,7 +1149,7 @@
       <c r="R26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="14">
         <f>M26*S10</f>
         <v>0.10666666666666667</v>
       </c>
@@ -1288,7 +1290,7 @@
       <c r="R33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="14">
         <f>M33*S11</f>
         <v>8.8888888888888878E-2</v>
       </c>
@@ -1330,7 +1332,7 @@
       <c r="R34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="14">
         <f>M34*S11</f>
         <v>4.4444444444444439E-2</v>
       </c>
@@ -1471,7 +1473,7 @@
       <c r="R41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S41" s="14">
         <f>M41*S12</f>
         <v>0.2</v>
       </c>
@@ -1513,7 +1515,7 @@
       <c r="R42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="2">
+      <c r="S42" s="14">
         <f>M42*S12</f>
         <v>0.05</v>
       </c>
@@ -1654,7 +1656,7 @@
       <c r="R49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S49" s="2">
+      <c r="S49" s="14">
         <f>M49*S13</f>
         <v>5.5555555555555552E-2</v>
       </c>
@@ -1696,7 +1698,7 @@
       <c r="R50" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S50" s="2">
+      <c r="S50" s="14">
         <f>M50*S13</f>
         <v>2.7777777777777776E-2</v>
       </c>
@@ -1879,19 +1881,19 @@
       <c r="F65" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G65" s="15">
         <f>SUMPRODUCT(G61:G64,$S$10:$S$13)</f>
         <v>0.62666666666666671</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="15">
         <f t="shared" ref="H65:J65" si="0">SUMPRODUCT(H61:H64,$S$10:$S$13)</f>
         <v>0.24555555555555553</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I65" s="15">
         <f t="shared" si="0"/>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J65" s="15">
         <f t="shared" si="0"/>
         <v>2.7777777777777776E-2</v>
       </c>
@@ -2028,5 +2030,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pimonov_Kursovaya_rabota439_2.xlsx
+++ b/Pimonov_Kursovaya_rabota439_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\disk_d\programming\kursach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94DA487-5931-4DFC-89B3-149B423BE13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C16579C-7C95-492D-8FDF-A738A0847965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="33">
   <si>
     <t>Глобальные приоритеты</t>
   </si>
@@ -107,6 +107,30 @@
   </si>
   <si>
     <t>сумма</t>
+  </si>
+  <si>
+    <t>w1</t>
+  </si>
+  <si>
+    <t>w2</t>
+  </si>
+  <si>
+    <t>сравниваем всё с x1</t>
+  </si>
+  <si>
+    <t>сравниваем всё с x2</t>
+  </si>
+  <si>
+    <t>сравниваем всё с x3</t>
+  </si>
+  <si>
+    <t>сравниваем всё с x4</t>
+  </si>
+  <si>
+    <t>сравниваем всё с x5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как можно заметить, все точки принадлежат к множеству Парето  </t>
   </si>
 </sst>
 </file>
@@ -199,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -216,6 +240,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -231,6 +258,1879 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>все точки</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$F$72:$F$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$G$72:$G$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-975E-486D-AB94-20916491443F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="64997040"/>
+        <c:axId val="64997456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="64997040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64997456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="64997456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64997040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> Множество Парето</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$F$96:$F$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$G$96:$G$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E932-42D7-BB44-1319599B4437}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="62548160"/>
+        <c:axId val="62548576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="62548160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62548576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="62548576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62548160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>474133</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B97EEA-321D-497F-B429-C2B80A0ACC4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330201</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C28A59CA-768F-49A8-B652-899590EC199D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T75" sqref="T75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1877,7 +3777,7 @@
       </c>
       <c r="U64" s="9"/>
     </row>
-    <row r="65" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:21" x14ac:dyDescent="0.3">
       <c r="F65" s="5" t="s">
         <v>23</v>
       </c>
@@ -1899,137 +3799,518 @@
       </c>
       <c r="U65" s="9"/>
     </row>
-    <row r="66" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U66" s="9"/>
     </row>
-    <row r="67" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U67" s="9"/>
     </row>
-    <row r="68" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U68" s="9"/>
     </row>
-    <row r="69" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U69" s="9"/>
     </row>
-    <row r="70" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U70" s="9"/>
     </row>
-    <row r="71" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
       <c r="U71" s="9"/>
     </row>
-    <row r="72" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72">
+        <v>0.3</v>
+      </c>
+      <c r="G72">
+        <f>1-F72</f>
+        <v>0.7</v>
+      </c>
       <c r="U72" s="9"/>
     </row>
-    <row r="73" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>0.45</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ref="G73:G76" si="1">1-F73</f>
+        <v>0.55000000000000004</v>
+      </c>
       <c r="U73" s="9"/>
     </row>
-    <row r="74" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>0.72</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
       <c r="U74" s="9"/>
     </row>
-    <row r="75" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75">
+        <v>0.1</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
       <c r="U75" s="9"/>
     </row>
-    <row r="76" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76">
+        <v>0.42</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>0.58000000000000007</v>
+      </c>
       <c r="U76" s="9"/>
     </row>
-    <row r="77" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U77" s="9"/>
     </row>
-    <row r="78" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U78" s="9"/>
     </row>
-    <row r="79" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U79" s="9"/>
     </row>
-    <row r="80" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U80" s="9"/>
     </row>
-    <row r="81" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U81" s="9"/>
     </row>
-    <row r="82" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U82" s="9"/>
     </row>
-    <row r="83" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E83" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="I83" t="s">
+        <v>28</v>
+      </c>
+      <c r="L83" t="s">
+        <v>29</v>
+      </c>
+      <c r="O83" t="s">
+        <v>30</v>
+      </c>
+      <c r="R83" t="s">
+        <v>31</v>
+      </c>
       <c r="U83" s="9"/>
     </row>
-    <row r="84" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" t="s">
+        <v>25</v>
+      </c>
+      <c r="J84" t="s">
+        <v>26</v>
+      </c>
+      <c r="L84" t="s">
+        <v>25</v>
+      </c>
+      <c r="M84" t="s">
+        <v>26</v>
+      </c>
+      <c r="O84" t="s">
+        <v>25</v>
+      </c>
+      <c r="P84" t="s">
+        <v>26</v>
+      </c>
+      <c r="R84" t="s">
+        <v>25</v>
+      </c>
+      <c r="S84" t="s">
+        <v>26</v>
+      </c>
       <c r="U84" s="9"/>
     </row>
-    <row r="85" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85">
+        <f>IF(AND($F$72&gt;$F72,$G$72&gt;$G72),0,$F72)</f>
+        <v>0.3</v>
+      </c>
+      <c r="G85">
+        <f>IF(AND($F$72&gt;$F72,$G$72&gt;$G72),0,$G72)</f>
+        <v>0.7</v>
+      </c>
+      <c r="I85">
+        <f>IF(AND($F$73&gt;$F72,$G$73&gt;$G72),0,$F72)</f>
+        <v>0.3</v>
+      </c>
+      <c r="J85">
+        <f>IF(AND($F$73&gt;$F72,$G$73&gt;$G72),0,$G72)</f>
+        <v>0.7</v>
+      </c>
+      <c r="L85">
+        <f>IF(AND($F$74&gt;$F72,$G$74&gt;$G72),0,$F72)</f>
+        <v>0.3</v>
+      </c>
+      <c r="M85">
+        <f>IF(AND($F$74&gt;$F72,$G$74&gt;$G72),0,$G72)</f>
+        <v>0.7</v>
+      </c>
+      <c r="O85">
+        <f>IF(AND($F$75&gt;$F72,$G$75&gt;$G72),0,$F72)</f>
+        <v>0.3</v>
+      </c>
+      <c r="P85">
+        <f>IF(AND($F$75&gt;$F72,$G$75&gt;$G72),0,$G72)</f>
+        <v>0.7</v>
+      </c>
+      <c r="R85">
+        <f>IF(AND($F$76&gt;$F72,$G$76&gt;$G72),0,$F72)</f>
+        <v>0.3</v>
+      </c>
+      <c r="S85">
+        <f>IF(AND($F$76&gt;$F72,$G$76&gt;$G72),0,$G72)</f>
+        <v>0.7</v>
+      </c>
       <c r="U85" s="9"/>
     </row>
-    <row r="86" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ref="F86:F89" si="2">IF(AND($F$72&gt;$F73,$G$72&gt;$G73),0,$F73)</f>
+        <v>0.45</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ref="G86:G89" si="3">IF(AND($F$72&gt;$F73,$G$72&gt;$G73),0,$G73)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I86">
+        <f>IF(AND($F$73&gt;$F73,$G$73&gt;$G73),0,$F73)</f>
+        <v>0.45</v>
+      </c>
+      <c r="J86">
+        <f>IF(AND($F$73&gt;$F73,$G$73&gt;$G73),0,$G73)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L86">
+        <f t="shared" ref="L86:L89" si="4">IF(AND($F$74&gt;$F73,$G$74&gt;$G73),0,$F73)</f>
+        <v>0.45</v>
+      </c>
+      <c r="M86">
+        <f t="shared" ref="M86:M89" si="5">IF(AND($F$74&gt;$F73,$G$74&gt;$G73),0,$G73)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O86">
+        <f t="shared" ref="O86:O89" si="6">IF(AND($F$75&gt;$F73,$G$75&gt;$G73),0,$F73)</f>
+        <v>0.45</v>
+      </c>
+      <c r="P86">
+        <f t="shared" ref="P86:P89" si="7">IF(AND($F$75&gt;$F73,$G$75&gt;$G73),0,$G73)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R86">
+        <f t="shared" ref="R86:R89" si="8">IF(AND($F$76&gt;$F73,$G$76&gt;$G73),0,$F73)</f>
+        <v>0.45</v>
+      </c>
+      <c r="S86">
+        <f t="shared" ref="S86:S89" si="9">IF(AND($F$76&gt;$F73,$G$76&gt;$G73),0,$G73)</f>
+        <v>0.55000000000000004</v>
+      </c>
       <c r="U86" s="9"/>
     </row>
-    <row r="87" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>0.72</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ref="I86:J89" si="10">IF(AND($F$73&gt;$F74,$G$73&gt;$G74),0,$F74)</f>
+        <v>0.72</v>
+      </c>
+      <c r="J87">
+        <f>IF(AND($F$73&gt;$F74,$G$73&gt;$G74),0,$G74)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="4"/>
+        <v>0.72</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="5"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="6"/>
+        <v>0.72</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="7"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="8"/>
+        <v>0.72</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="9"/>
+        <v>0.28000000000000003</v>
+      </c>
       <c r="U87" s="9"/>
     </row>
-    <row r="88" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="J88">
+        <f t="shared" ref="J86:K89" si="11">IF(AND($F$73&gt;$F75,$G$73&gt;$G75),0,$G75)</f>
+        <v>0.9</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
       <c r="U88" s="9"/>
     </row>
-    <row r="89" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="2"/>
+        <v>0.42</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="3"/>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="10"/>
+        <v>0.42</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="11"/>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="4"/>
+        <v>0.42</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="5"/>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="6"/>
+        <v>0.42</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="7"/>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="8"/>
+        <v>0.42</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="9"/>
+        <v>0.58000000000000007</v>
+      </c>
       <c r="U89" s="9"/>
     </row>
-    <row r="90" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U90" s="9"/>
     </row>
-    <row r="91" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U91" s="9"/>
     </row>
-    <row r="92" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E92" t="s">
+        <v>32</v>
+      </c>
       <c r="U92" s="9"/>
     </row>
-    <row r="93" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U93" s="9"/>
     </row>
-    <row r="94" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U94" s="9"/>
     </row>
-    <row r="95" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="F95" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" t="s">
+        <v>26</v>
+      </c>
       <c r="U95" s="9"/>
     </row>
-    <row r="96" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96">
+        <v>0.3</v>
+      </c>
+      <c r="G96">
+        <f>1-F96</f>
+        <v>0.7</v>
+      </c>
       <c r="U96" s="9"/>
     </row>
-    <row r="97" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97">
+        <v>0.45</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ref="G97:G100" si="12">1-F97</f>
+        <v>0.55000000000000004</v>
+      </c>
       <c r="U97" s="9"/>
     </row>
-    <row r="98" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <v>0.72</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="12"/>
+        <v>0.28000000000000003</v>
+      </c>
       <c r="U98" s="9"/>
     </row>
-    <row r="99" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99">
+        <v>0.1</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
       <c r="U99" s="9"/>
     </row>
-    <row r="100" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100">
+        <v>0.42</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="12"/>
+        <v>0.58000000000000007</v>
+      </c>
       <c r="U100" s="9"/>
     </row>
-    <row r="101" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U101" s="9"/>
     </row>
-    <row r="102" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U102" s="9"/>
     </row>
-    <row r="103" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U103" s="8"/>
     </row>
-    <row r="104" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U104" s="8"/>
     </row>
-    <row r="105" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U105" s="8"/>
     </row>
-    <row r="106" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U106" s="8"/>
     </row>
-    <row r="107" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U107" s="8"/>
     </row>
-    <row r="108" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:21" x14ac:dyDescent="0.3">
       <c r="U108" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E83:G83"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Pimonov_Kursovaya_rabota439_2.xlsx
+++ b/Pimonov_Kursovaya_rabota439_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\disk_d\programming\kursach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C16579C-7C95-492D-8FDF-A738A0847965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE42B75F-DB2E-4415-9695-208B702DAEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
     <t>сравниваем всё с x5</t>
   </si>
   <si>
-    <t xml:space="preserve">Как можно заметить, все точки принадлежат к множеству Парето  </t>
+    <t xml:space="preserve">Данные точки принадлежат к множеству Парето  </t>
   </si>
 </sst>
 </file>
@@ -391,16 +391,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.58000000000000007</c:v>
@@ -708,20 +708,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,20 +723,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.7</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.58000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2398,8 +2380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T75" sqref="T75"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R97" sqref="R97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3815,75 +3797,74 @@
       <c r="U70" s="9"/>
     </row>
     <row r="71" spans="5:21" x14ac:dyDescent="0.3">
-      <c r="F71" t="s">
+      <c r="E71" s="5"/>
+      <c r="F71" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="5" t="s">
         <v>26</v>
       </c>
       <c r="U71" s="9"/>
     </row>
     <row r="72" spans="5:21" x14ac:dyDescent="0.3">
-      <c r="E72" t="s">
+      <c r="E72" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="5">
         <v>0.3</v>
       </c>
-      <c r="G72">
-        <f>1-F72</f>
-        <v>0.7</v>
+      <c r="G72" s="5">
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="U72" s="9"/>
     </row>
     <row r="73" spans="5:21" x14ac:dyDescent="0.3">
-      <c r="E73" t="s">
+      <c r="E73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="5">
         <v>0.45</v>
       </c>
-      <c r="G73">
-        <f t="shared" ref="G73:G76" si="1">1-F73</f>
-        <v>0.55000000000000004</v>
+      <c r="G73" s="5">
+        <v>2</v>
       </c>
       <c r="U73" s="9"/>
     </row>
     <row r="74" spans="5:21" x14ac:dyDescent="0.3">
-      <c r="E74" t="s">
+      <c r="E74" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="5">
         <v>0.72</v>
       </c>
-      <c r="G74">
-        <f t="shared" si="1"/>
-        <v>0.28000000000000003</v>
+      <c r="G74" s="5">
+        <v>0.5</v>
       </c>
       <c r="U74" s="9"/>
     </row>
     <row r="75" spans="5:21" x14ac:dyDescent="0.3">
-      <c r="E75" t="s">
+      <c r="E75" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="5">
         <v>0.1</v>
       </c>
-      <c r="G75">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+      <c r="G75" s="5">
+        <f>1.5</f>
+        <v>1.5</v>
       </c>
       <c r="U75" s="9"/>
     </row>
     <row r="76" spans="5:21" x14ac:dyDescent="0.3">
-      <c r="E76" t="s">
+      <c r="E76" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="5">
         <v>0.42</v>
       </c>
-      <c r="G76">
-        <f t="shared" si="1"/>
+      <c r="G76" s="5">
+        <f t="shared" ref="G73:G76" si="1">1-F76</f>
         <v>0.58000000000000007</v>
       </c>
       <c r="U76" s="9"/>
@@ -3969,15 +3950,15 @@
       </c>
       <c r="G85">
         <f>IF(AND($F$72&gt;$F72,$G$72&gt;$G72),0,$G72)</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <f>IF(AND($F$73&gt;$F72,$G$73&gt;$G72),0,$F72)</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J85">
         <f>IF(AND($F$73&gt;$F72,$G$73&gt;$G72),0,$G72)</f>
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L85">
         <f>IF(AND($F$74&gt;$F72,$G$74&gt;$G72),0,$F72)</f>
@@ -3985,7 +3966,7 @@
       </c>
       <c r="M85">
         <f>IF(AND($F$74&gt;$F72,$G$74&gt;$G72),0,$G72)</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O85">
         <f>IF(AND($F$75&gt;$F72,$G$75&gt;$G72),0,$F72)</f>
@@ -3993,7 +3974,7 @@
       </c>
       <c r="P85">
         <f>IF(AND($F$75&gt;$F72,$G$75&gt;$G72),0,$G72)</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="R85">
         <f>IF(AND($F$76&gt;$F72,$G$76&gt;$G72),0,$F72)</f>
@@ -4001,7 +3982,7 @@
       </c>
       <c r="S85">
         <f>IF(AND($F$76&gt;$F72,$G$76&gt;$G72),0,$G72)</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="U85" s="9"/>
     </row>
@@ -4015,7 +3996,7 @@
       </c>
       <c r="G86">
         <f t="shared" ref="G86:G89" si="3">IF(AND($F$72&gt;$F73,$G$72&gt;$G73),0,$G73)</f>
-        <v>0.55000000000000004</v>
+        <v>2</v>
       </c>
       <c r="I86">
         <f>IF(AND($F$73&gt;$F73,$G$73&gt;$G73),0,$F73)</f>
@@ -4023,7 +4004,7 @@
       </c>
       <c r="J86">
         <f>IF(AND($F$73&gt;$F73,$G$73&gt;$G73),0,$G73)</f>
-        <v>0.55000000000000004</v>
+        <v>2</v>
       </c>
       <c r="L86">
         <f t="shared" ref="L86:L89" si="4">IF(AND($F$74&gt;$F73,$G$74&gt;$G73),0,$F73)</f>
@@ -4031,7 +4012,7 @@
       </c>
       <c r="M86">
         <f t="shared" ref="M86:M89" si="5">IF(AND($F$74&gt;$F73,$G$74&gt;$G73),0,$G73)</f>
-        <v>0.55000000000000004</v>
+        <v>2</v>
       </c>
       <c r="O86">
         <f t="shared" ref="O86:O89" si="6">IF(AND($F$75&gt;$F73,$G$75&gt;$G73),0,$F73)</f>
@@ -4039,7 +4020,7 @@
       </c>
       <c r="P86">
         <f t="shared" ref="P86:P89" si="7">IF(AND($F$75&gt;$F73,$G$75&gt;$G73),0,$G73)</f>
-        <v>0.55000000000000004</v>
+        <v>2</v>
       </c>
       <c r="R86">
         <f t="shared" ref="R86:R89" si="8">IF(AND($F$76&gt;$F73,$G$76&gt;$G73),0,$F73)</f>
@@ -4047,7 +4028,7 @@
       </c>
       <c r="S86">
         <f t="shared" ref="S86:S89" si="9">IF(AND($F$76&gt;$F73,$G$76&gt;$G73),0,$G73)</f>
-        <v>0.55000000000000004</v>
+        <v>2</v>
       </c>
       <c r="U86" s="9"/>
     </row>
@@ -4061,15 +4042,15 @@
       </c>
       <c r="G87">
         <f t="shared" si="3"/>
-        <v>0.28000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="I87">
-        <f t="shared" ref="I86:J89" si="10">IF(AND($F$73&gt;$F74,$G$73&gt;$G74),0,$F74)</f>
+        <f t="shared" ref="I87:I89" si="10">IF(AND($F$73&gt;$F74,$G$73&gt;$G74),0,$F74)</f>
         <v>0.72</v>
       </c>
       <c r="J87">
         <f>IF(AND($F$73&gt;$F74,$G$73&gt;$G74),0,$G74)</f>
-        <v>0.28000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="L87">
         <f t="shared" si="4"/>
@@ -4077,7 +4058,7 @@
       </c>
       <c r="M87">
         <f t="shared" si="5"/>
-        <v>0.28000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="O87">
         <f t="shared" si="6"/>
@@ -4085,7 +4066,7 @@
       </c>
       <c r="P87">
         <f t="shared" si="7"/>
-        <v>0.28000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="R87">
         <f t="shared" si="8"/>
@@ -4093,7 +4074,7 @@
       </c>
       <c r="S87">
         <f t="shared" si="9"/>
-        <v>0.28000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="U87" s="9"/>
     </row>
@@ -4107,15 +4088,15 @@
       </c>
       <c r="G88">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="I88">
         <f t="shared" si="10"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <f t="shared" ref="J86:K89" si="11">IF(AND($F$73&gt;$F75,$G$73&gt;$G75),0,$G75)</f>
-        <v>0.9</v>
+        <f t="shared" ref="J88:J89" si="11">IF(AND($F$73&gt;$F75,$G$73&gt;$G75),0,$G75)</f>
+        <v>0</v>
       </c>
       <c r="L88">
         <f t="shared" si="4"/>
@@ -4123,7 +4104,7 @@
       </c>
       <c r="M88">
         <f t="shared" si="5"/>
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="O88">
         <f t="shared" si="6"/>
@@ -4131,7 +4112,7 @@
       </c>
       <c r="P88">
         <f t="shared" si="7"/>
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="R88">
         <f t="shared" si="8"/>
@@ -4139,7 +4120,7 @@
       </c>
       <c r="S88">
         <f t="shared" si="9"/>
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U88" s="9"/>
     </row>
@@ -4157,11 +4138,11 @@
       </c>
       <c r="I89">
         <f t="shared" si="10"/>
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="J89">
         <f t="shared" si="11"/>
-        <v>0.58000000000000007</v>
+        <v>0</v>
       </c>
       <c r="L89">
         <f t="shared" si="4"/>
@@ -4208,77 +4189,63 @@
       <c r="U94" s="9"/>
     </row>
     <row r="95" spans="5:21" x14ac:dyDescent="0.3">
-      <c r="F95" t="s">
+      <c r="E95" s="5"/>
+      <c r="F95" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="5" t="s">
         <v>26</v>
       </c>
       <c r="U95" s="9"/>
     </row>
     <row r="96" spans="5:21" x14ac:dyDescent="0.3">
-      <c r="E96" t="s">
+      <c r="E96" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F96">
-        <v>0.3</v>
-      </c>
-      <c r="G96">
-        <f>1-F96</f>
-        <v>0.7</v>
-      </c>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
       <c r="U96" s="9"/>
     </row>
     <row r="97" spans="5:21" x14ac:dyDescent="0.3">
-      <c r="E97" t="s">
+      <c r="E97" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="5">
         <v>0.45</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="5">
         <f t="shared" ref="G97:G100" si="12">1-F97</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="U97" s="9"/>
     </row>
     <row r="98" spans="5:21" x14ac:dyDescent="0.3">
-      <c r="E98" t="s">
+      <c r="E98" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="5">
         <v>0.72</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="5">
         <f t="shared" si="12"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="U98" s="9"/>
     </row>
     <row r="99" spans="5:21" x14ac:dyDescent="0.3">
-      <c r="E99" t="s">
+      <c r="E99" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F99">
-        <v>0.1</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
-      </c>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
       <c r="U99" s="9"/>
     </row>
     <row r="100" spans="5:21" x14ac:dyDescent="0.3">
-      <c r="E100" t="s">
+      <c r="E100" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F100">
-        <v>0.42</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="12"/>
-        <v>0.58000000000000007</v>
-      </c>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
       <c r="U100" s="9"/>
     </row>
     <row r="101" spans="5:21" x14ac:dyDescent="0.3">

--- a/Pimonov_Kursovaya_rabota439_2.xlsx
+++ b/Pimonov_Kursovaya_rabota439_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\disk_d\programming\kursach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE42B75F-DB2E-4415-9695-208B702DAEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1618CA4A-A071-4BB4-81D9-75B8691F4629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2380,8 +2380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R97" sqref="R97"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72:G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3864,7 +3864,7 @@
         <v>0.42</v>
       </c>
       <c r="G76" s="5">
-        <f t="shared" ref="G73:G76" si="1">1-F76</f>
+        <f t="shared" ref="G76" si="1">1-F76</f>
         <v>0.58000000000000007</v>
       </c>
       <c r="U76" s="9"/>
@@ -4214,7 +4214,7 @@
         <v>0.45</v>
       </c>
       <c r="G97" s="5">
-        <f t="shared" ref="G97:G100" si="12">1-F97</f>
+        <f t="shared" ref="G97:G98" si="12">1-F97</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="U97" s="9"/>

--- a/Pimonov_Kursovaya_rabota439_2.xlsx
+++ b/Pimonov_Kursovaya_rabota439_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\disk_d\programming\kursach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1618CA4A-A071-4BB4-81D9-75B8691F4629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F42E279-8F32-4393-81B3-991144B87B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2380,7 +2380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F72" sqref="F72:G76"/>
     </sheetView>
   </sheetViews>

--- a/Pimonov_Kursovaya_rabota439_2.xlsx
+++ b/Pimonov_Kursovaya_rabota439_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\disk_d\programming\kursach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F42E279-8F32-4393-81B3-991144B87B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C113BD-9DC0-4AC3-90FC-4346E636806C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -243,6 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2380,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72:G76"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R100" sqref="R100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2389,7 +2390,7 @@
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2398,7 +2399,7 @@
       </c>
       <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>9</v>
@@ -2423,7 +2424,7 @@
       </c>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -2465,7 +2466,7 @@
       </c>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -2508,7 +2509,7 @@
       </c>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
         <v>6</v>
       </c>
@@ -2525,7 +2526,7 @@
       </c>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>7</v>
       </c>
@@ -2535,7 +2536,7 @@
       </c>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>8</v>
       </c>
@@ -2545,7 +2546,7 @@
       </c>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2568,7 +2569,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -2594,7 +2595,7 @@
       <c r="S9" s="2"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -2633,8 +2634,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V10" s="14"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -2674,8 +2676,9 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V11" s="14"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
       <c r="H12">
         <f>SUM(D$10:D$12)*F12</f>
@@ -2693,8 +2696,9 @@
         <v>0.25</v>
       </c>
       <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V12" s="14"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
         <v>12</v>
       </c>
@@ -2711,7 +2715,7 @@
       </c>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
         <v>7</v>
       </c>
@@ -2727,8 +2731,9 @@
         <v>1</v>
       </c>
       <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V14" s="14"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
         <v>8</v>
       </c>
@@ -2737,8 +2742,9 @@
         <v>0</v>
       </c>
       <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V15" s="14"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2826,6 +2832,7 @@
         <v>0.75</v>
       </c>
       <c r="N18" s="2"/>
+      <c r="R18" s="17"/>
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -2864,6 +2871,7 @@
         <v>0.25</v>
       </c>
       <c r="N19" s="2"/>
+      <c r="R19" s="17"/>
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">

--- a/Pimonov_Kursovaya_rabota439_2.xlsx
+++ b/Pimonov_Kursovaya_rabota439_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\disk_d\programming\kursach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C113BD-9DC0-4AC3-90FC-4346E636806C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59C211F-7103-479D-B6A9-008327A4D75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,10 +240,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2381,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R100" sqref="R100"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2832,7 +2832,7 @@
         <v>0.75</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="R18" s="17"/>
+      <c r="R18" s="16"/>
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -2871,7 +2871,7 @@
         <v>0.25</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="R19" s="17"/>
+      <c r="R19" s="16"/>
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
@@ -3896,11 +3896,11 @@
       <c r="U82" s="9"/>
     </row>
     <row r="83" spans="5:21" x14ac:dyDescent="0.3">
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
       <c r="I83" t="s">
         <v>28</v>
       </c>
